--- a/public/app-assets/ImportSamples/10-ReceiptsImport.xlsx
+++ b/public/app-assets/ImportSamples/10-ReceiptsImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>unit_short_label *</t>
   </si>
@@ -67,6 +67,9 @@
     <t>GF-12</t>
   </si>
   <si>
+    <t>1231231212134</t>
+  </si>
+  <si>
     <t>cash</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>GF-13</t>
+  </si>
+  <si>
+    <t>3214325436547</t>
   </si>
   <si>
     <t>cheque</t>
@@ -117,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -199,11 +205,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,16 +234,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,15 +256,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,56 +318,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,7 +334,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -356,7 +362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +416,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,25 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,31 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,67 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +553,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,17 +589,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,21 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -632,160 +653,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,6 +847,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1105,8 +1114,8 @@
   </sheetPr>
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1183,8 +1192,8 @@
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>1234567890123</v>
+      <c r="B2" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
@@ -1196,41 +1205,41 @@
         <v>44862</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5">
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" customHeight="1" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="B3" s="2">
-        <v>1234567890124</v>
+      <c r="B3" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
@@ -1242,10 +1251,10 @@
         <v>44863</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5">
         <v>25</v>
@@ -1254,31 +1263,31 @@
         <v>12343</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5">
         <v>10209010001001</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="B4" s="2">
-        <v>1234567890124</v>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>100</v>
@@ -1290,10 +1299,10 @@
         <v>44863</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5">
         <v>25</v>
@@ -1302,31 +1311,31 @@
         <v>12343</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5">
         <v>10209010001004</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="B5" s="2">
-        <v>1234567890124</v>
+      <c r="B5" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <v>100</v>
@@ -1338,19 +1347,19 @@
         <v>44863</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5">
         <v>25</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5">
@@ -1360,21 +1369,21 @@
         <v>44859</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="B6" s="2">
-        <v>1234567890124</v>
+      <c r="B6" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -1386,33 +1395,33 @@
         <v>44863</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="5">
         <v>25</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:16">
